--- a/data/pca/factorExposure/factorExposure_2013-03-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-20.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-5.556216268487338e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002087366729176575</v>
+      </c>
+      <c r="C2">
+        <v>-0.03394443217016085</v>
+      </c>
+      <c r="D2">
+        <v>-0.003590141981325608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001536161833335574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005962503210672269</v>
+      </c>
+      <c r="C4">
+        <v>-0.08511463533535837</v>
+      </c>
+      <c r="D4">
+        <v>0.07859765941257156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003579888933768955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01350436298715599</v>
+      </c>
+      <c r="C6">
+        <v>-0.1133368123034779</v>
+      </c>
+      <c r="D6">
+        <v>0.03200462692521854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001788053305699077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004758617705186731</v>
+      </c>
+      <c r="C7">
+        <v>-0.05626567052390711</v>
+      </c>
+      <c r="D7">
+        <v>0.03227071499053277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002341242047493672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005670816492169757</v>
+      </c>
+      <c r="C8">
+        <v>-0.03875738534808582</v>
+      </c>
+      <c r="D8">
+        <v>0.04116247720779797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003587125814215572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004064502026091319</v>
+      </c>
+      <c r="C9">
+        <v>-0.07097729522600869</v>
+      </c>
+      <c r="D9">
+        <v>0.07023633836835817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004626945749531803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005194519459528522</v>
+      </c>
+      <c r="C10">
+        <v>-0.05902069176877556</v>
+      </c>
+      <c r="D10">
+        <v>-0.2021747690476323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002461847014955421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.00531750886689077</v>
+      </c>
+      <c r="C11">
+        <v>-0.08106649888516519</v>
+      </c>
+      <c r="D11">
+        <v>0.05860053394405648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003549318006009797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003923826031391205</v>
+      </c>
+      <c r="C12">
+        <v>-0.06479604899565874</v>
+      </c>
+      <c r="D12">
+        <v>0.04504035759693316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003667851688630311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008516131403446101</v>
+      </c>
+      <c r="C13">
+        <v>-0.0670433015079227</v>
+      </c>
+      <c r="D13">
+        <v>0.06855406059950632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.00096841736760001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001327973423929183</v>
+      </c>
+      <c r="C14">
+        <v>-0.04596785366550324</v>
+      </c>
+      <c r="D14">
+        <v>0.007426015258875393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009664997564664891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005790722009883689</v>
+      </c>
+      <c r="C15">
+        <v>-0.04212989858662453</v>
+      </c>
+      <c r="D15">
+        <v>0.03149934788817731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.00114944660740261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00492388764567512</v>
+      </c>
+      <c r="C16">
+        <v>-0.06672596357847919</v>
+      </c>
+      <c r="D16">
+        <v>0.04488638764502179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0004252053062971734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008768096129472353</v>
+      </c>
+      <c r="C20">
+        <v>-0.06804602462266873</v>
+      </c>
+      <c r="D20">
+        <v>0.04662157018539453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005437389632762393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009801218097127175</v>
+      </c>
+      <c r="C21">
+        <v>-0.0229694418413893</v>
+      </c>
+      <c r="D21">
+        <v>0.03569320173970036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01813410103641912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006981840801090781</v>
+      </c>
+      <c r="C22">
+        <v>-0.09458638223126664</v>
+      </c>
+      <c r="D22">
+        <v>0.09996493937457784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.0184537248852304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006796861421399796</v>
+      </c>
+      <c r="C23">
+        <v>-0.0954658545905861</v>
+      </c>
+      <c r="D23">
+        <v>0.1003309352617068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.00173342145504126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005052896681558001</v>
+      </c>
+      <c r="C24">
+        <v>-0.07591023926751948</v>
+      </c>
+      <c r="D24">
+        <v>0.05755141853668033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003524671648559735</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002745048570589222</v>
+      </c>
+      <c r="C25">
+        <v>-0.07876408641561543</v>
+      </c>
+      <c r="D25">
+        <v>0.06398297310125269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.005879791317256799</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003456726886752055</v>
+      </c>
+      <c r="C26">
+        <v>-0.04199266922868911</v>
+      </c>
+      <c r="D26">
+        <v>0.02340998366102114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004118357845393189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001239017481203716</v>
+      </c>
+      <c r="C28">
+        <v>-0.1068811551665298</v>
+      </c>
+      <c r="D28">
+        <v>-0.3193884448793176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0007693021222562641</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002970372039210576</v>
+      </c>
+      <c r="C29">
+        <v>-0.04882142306955765</v>
+      </c>
+      <c r="D29">
+        <v>0.002942133374843044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002916982802098726</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008926333864066754</v>
+      </c>
+      <c r="C30">
+        <v>-0.1455806830785202</v>
+      </c>
+      <c r="D30">
+        <v>0.09992948201309311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0003860331885139181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00605763866028775</v>
+      </c>
+      <c r="C31">
+        <v>-0.04537935590527715</v>
+      </c>
+      <c r="D31">
+        <v>0.03206426712560276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005348226588806598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003805727738388163</v>
+      </c>
+      <c r="C32">
+        <v>-0.0406661674835959</v>
+      </c>
+      <c r="D32">
+        <v>0.02439706190013997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002703307842316557</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007909629314620348</v>
+      </c>
+      <c r="C33">
+        <v>-0.08690289959821931</v>
+      </c>
+      <c r="D33">
+        <v>0.06937052109508014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004224760528227679</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003794294792030893</v>
+      </c>
+      <c r="C34">
+        <v>-0.05883976970728608</v>
+      </c>
+      <c r="D34">
+        <v>0.04874619770138764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002423540740537145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004700150646720543</v>
+      </c>
+      <c r="C35">
+        <v>-0.03958177600394325</v>
+      </c>
+      <c r="D35">
+        <v>0.01291792257971393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003966434548987533</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001416874384656709</v>
+      </c>
+      <c r="C36">
+        <v>-0.0250421987431374</v>
+      </c>
+      <c r="D36">
+        <v>0.01942877493363273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002273685294493512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009422227865400847</v>
+      </c>
+      <c r="C38">
+        <v>-0.03397326283682307</v>
+      </c>
+      <c r="D38">
+        <v>0.02118349373075049</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.0121928514131649</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001075913470719927</v>
+      </c>
+      <c r="C39">
+        <v>-0.1174811217316575</v>
+      </c>
+      <c r="D39">
+        <v>0.07051797149414202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009406100692571964</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002066619960174871</v>
+      </c>
+      <c r="C40">
+        <v>-0.0885691526147168</v>
+      </c>
+      <c r="D40">
+        <v>0.01454541407754286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001776907250685834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007142614717000145</v>
+      </c>
+      <c r="C41">
+        <v>-0.03782943165078984</v>
+      </c>
+      <c r="D41">
+        <v>0.03513128700930197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003109124871021444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003495124666690712</v>
+      </c>
+      <c r="C43">
+        <v>-0.05177576437917053</v>
+      </c>
+      <c r="D43">
+        <v>0.02356941572258439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002619268570840723</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003082700118325056</v>
+      </c>
+      <c r="C44">
+        <v>-0.1129262900016096</v>
+      </c>
+      <c r="D44">
+        <v>0.07047242416162756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00146715274571751</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002288388548906044</v>
+      </c>
+      <c r="C46">
+        <v>-0.03574055546780916</v>
+      </c>
+      <c r="D46">
+        <v>0.026322344991805</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000206507225488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002643894179381075</v>
+      </c>
+      <c r="C47">
+        <v>-0.03779972744663734</v>
+      </c>
+      <c r="D47">
+        <v>0.02509507783118469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003384381205647899</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006368927675936133</v>
+      </c>
+      <c r="C48">
+        <v>-0.02918035284738007</v>
+      </c>
+      <c r="D48">
+        <v>0.03046985309519201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.0131970325217848</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01447192591430421</v>
+      </c>
+      <c r="C49">
+        <v>-0.1828705761887117</v>
+      </c>
+      <c r="D49">
+        <v>0.01348163676751044</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001263478395219745</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003495448434055487</v>
+      </c>
+      <c r="C50">
+        <v>-0.04419516491815983</v>
+      </c>
+      <c r="D50">
+        <v>0.03525873228008617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0004140966427628329</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00424228212139605</v>
+      </c>
+      <c r="C51">
+        <v>-0.02507405323401506</v>
+      </c>
+      <c r="D51">
+        <v>0.01967198206060087</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001216768304603225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02015152426672659</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695899932325317</v>
+      </c>
+      <c r="D53">
+        <v>0.03640640474309859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001109555683833222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008658629737639456</v>
+      </c>
+      <c r="C54">
+        <v>-0.05632035361862614</v>
+      </c>
+      <c r="D54">
+        <v>0.04143308118141341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003473973632771684</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009223131568617808</v>
+      </c>
+      <c r="C55">
+        <v>-0.1106985741745127</v>
+      </c>
+      <c r="D55">
+        <v>0.04297645208701443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003881227982469507</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01963735397135209</v>
+      </c>
+      <c r="C56">
+        <v>-0.1763807345628235</v>
+      </c>
+      <c r="D56">
+        <v>0.0342130041948759</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006895369773729563</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01925461967588778</v>
+      </c>
+      <c r="C58">
+        <v>-0.1089834187973917</v>
+      </c>
+      <c r="D58">
+        <v>0.05534724612975903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006129591739394218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008866950581888841</v>
+      </c>
+      <c r="C59">
+        <v>-0.1592453997241867</v>
+      </c>
+      <c r="D59">
+        <v>-0.3045702167046166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003618849628779619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0229985684070336</v>
+      </c>
+      <c r="C60">
+        <v>-0.2246081282955185</v>
+      </c>
+      <c r="D60">
+        <v>0.02023971542446346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01423439042926203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00212557301012589</v>
+      </c>
+      <c r="C61">
+        <v>-0.09587004206766171</v>
+      </c>
+      <c r="D61">
+        <v>0.05510861403792212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1700270269126906</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1440810221917002</v>
+      </c>
+      <c r="C62">
+        <v>-0.08909876657363749</v>
+      </c>
+      <c r="D62">
+        <v>0.04625049714302511</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0008016181585073759</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006115949878051864</v>
+      </c>
+      <c r="C63">
+        <v>-0.0567630315930825</v>
+      </c>
+      <c r="D63">
+        <v>0.02388798826941648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.004741472272383087</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01474811677382726</v>
+      </c>
+      <c r="C64">
+        <v>-0.1048223551884764</v>
+      </c>
+      <c r="D64">
+        <v>0.05800219739454771</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002774302972644357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01718912553039129</v>
+      </c>
+      <c r="C65">
+        <v>-0.1212053496545718</v>
+      </c>
+      <c r="D65">
+        <v>0.01641507526629913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007239189383647019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0123094827923074</v>
+      </c>
+      <c r="C66">
+        <v>-0.1597297619457869</v>
+      </c>
+      <c r="D66">
+        <v>0.1119165925229872</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003800235614231111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01547896540808104</v>
+      </c>
+      <c r="C67">
+        <v>-0.06485449239766394</v>
+      </c>
+      <c r="D67">
+        <v>0.02964773436049378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006055695459927304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0003734223234009452</v>
+      </c>
+      <c r="C68">
+        <v>-0.08732406238311097</v>
+      </c>
+      <c r="D68">
+        <v>-0.2521470217848016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002894616762458513</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005923910341545698</v>
+      </c>
+      <c r="C69">
+        <v>-0.05027852308839476</v>
+      </c>
+      <c r="D69">
+        <v>0.03766640765140231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-8.03648080156355e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00184225394662622</v>
+      </c>
+      <c r="C70">
+        <v>-0.002839583132480782</v>
+      </c>
+      <c r="D70">
+        <v>0.001367559988775672</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002088637214238312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005561621411291369</v>
+      </c>
+      <c r="C71">
+        <v>-0.09735323087473528</v>
+      </c>
+      <c r="D71">
+        <v>-0.2995091067721138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004481781542468284</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01539536995494678</v>
+      </c>
+      <c r="C72">
+        <v>-0.1501176764942186</v>
+      </c>
+      <c r="D72">
+        <v>0.02429913605735072</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01213230593837436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02901954323928063</v>
+      </c>
+      <c r="C73">
+        <v>-0.2771485426919806</v>
+      </c>
+      <c r="D73">
+        <v>0.04794008519007714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004220642543083001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001319779103118292</v>
+      </c>
+      <c r="C74">
+        <v>-0.1053020795493729</v>
+      </c>
+      <c r="D74">
+        <v>0.03835932015844829</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002036542977267093</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01062720022920809</v>
+      </c>
+      <c r="C75">
+        <v>-0.13084383701236</v>
+      </c>
+      <c r="D75">
+        <v>0.02272925838305881</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.00959412232630481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02119407217204571</v>
+      </c>
+      <c r="C76">
+        <v>-0.1509869723776594</v>
+      </c>
+      <c r="D76">
+        <v>0.06393264518086848</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.00134224263067001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02400949450771827</v>
+      </c>
+      <c r="C77">
+        <v>-0.1325448930418718</v>
+      </c>
+      <c r="D77">
+        <v>0.0564440550566667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008183118478278688</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0142063608044994</v>
+      </c>
+      <c r="C78">
+        <v>-0.09534648233391728</v>
+      </c>
+      <c r="D78">
+        <v>0.065307781062974</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02482535687477181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03692600123815271</v>
+      </c>
+      <c r="C79">
+        <v>-0.1569903046595257</v>
+      </c>
+      <c r="D79">
+        <v>0.03186893374780107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004793464335582196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01048545479312506</v>
+      </c>
+      <c r="C80">
+        <v>-0.04289660483665626</v>
+      </c>
+      <c r="D80">
+        <v>0.03032447585364714</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001061595709118302</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01466379699114992</v>
+      </c>
+      <c r="C81">
+        <v>-0.1282422072093358</v>
+      </c>
+      <c r="D81">
+        <v>0.04342184109807326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005998321260391449</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0195237504702495</v>
+      </c>
+      <c r="C82">
+        <v>-0.1457660946661903</v>
+      </c>
+      <c r="D82">
+        <v>0.04115706261825474</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008760181677328258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009969422213739651</v>
+      </c>
+      <c r="C83">
+        <v>-0.05740173309643062</v>
+      </c>
+      <c r="D83">
+        <v>0.05404003953386929</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01291836912272743</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01164072886895613</v>
+      </c>
+      <c r="C84">
+        <v>-0.03857508944056292</v>
+      </c>
+      <c r="D84">
+        <v>-0.008293132060856282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01607489421783376</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02775521482139744</v>
+      </c>
+      <c r="C85">
+        <v>-0.1305202365254463</v>
+      </c>
+      <c r="D85">
+        <v>0.04436983198887541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.0009457937155837394</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00534385586189058</v>
+      </c>
+      <c r="C86">
+        <v>-0.04886399576088965</v>
+      </c>
+      <c r="D86">
+        <v>0.02363273617723665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00487386661199038</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01024868677258762</v>
+      </c>
+      <c r="C87">
+        <v>-0.1334080546354605</v>
+      </c>
+      <c r="D87">
+        <v>0.06217762371592045</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01282188232949011</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003092507808612891</v>
+      </c>
+      <c r="C88">
+        <v>-0.06765915144915258</v>
+      </c>
+      <c r="D88">
+        <v>0.008935467432759931</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01421004744558375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002048867122247245</v>
+      </c>
+      <c r="C89">
+        <v>-0.1456453056489401</v>
+      </c>
+      <c r="D89">
+        <v>-0.351178139118917</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002156149087818473</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006500663343643973</v>
+      </c>
+      <c r="C90">
+        <v>-0.1208235480955553</v>
+      </c>
+      <c r="D90">
+        <v>-0.3240451861125758</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001335313976539434</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01020043754521322</v>
+      </c>
+      <c r="C91">
+        <v>-0.1029533707196873</v>
+      </c>
+      <c r="D91">
+        <v>0.02418130220398229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008180229130300145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-2.692007723787248e-05</v>
+      </c>
+      <c r="C92">
+        <v>-0.1340048201518559</v>
+      </c>
+      <c r="D92">
+        <v>-0.3357001689727198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-5.955215254648943e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004511406763951526</v>
+      </c>
+      <c r="C93">
+        <v>-0.1046891976228565</v>
+      </c>
+      <c r="D93">
+        <v>-0.3149567857334905</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.00466459891453748</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02222050321179439</v>
+      </c>
+      <c r="C94">
+        <v>-0.1540527462316765</v>
+      </c>
+      <c r="D94">
+        <v>0.04709660551753431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.0045521856511951</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.016011768566094</v>
+      </c>
+      <c r="C95">
+        <v>-0.1271266640533879</v>
+      </c>
+      <c r="D95">
+        <v>0.06150873153468923</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001181424257210188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03395670681381525</v>
+      </c>
+      <c r="C97">
+        <v>-0.1921652069856758</v>
+      </c>
+      <c r="D97">
+        <v>0.008450615222195512</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003603318624071709</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03575011112933477</v>
+      </c>
+      <c r="C98">
+        <v>-0.2464444022768199</v>
+      </c>
+      <c r="D98">
+        <v>0.05374220248397513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.983514005323173</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827428806968609</v>
+      </c>
+      <c r="C99">
+        <v>0.1115098339484879</v>
+      </c>
+      <c r="D99">
+        <v>-0.0280468893123275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0007210583514299931</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003015869089838299</v>
+      </c>
+      <c r="C101">
+        <v>-0.04884573330408105</v>
+      </c>
+      <c r="D101">
+        <v>0.003413728202033843</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
